--- a/backend/storage/app/xlsx/seed_cidades_pi.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_pi.xlsx
@@ -23,7 +23,7 @@
     <t>ACAUÃNENSE</t>
   </si>
   <si>
-    <t>65e2b4d7-6f62-4196-ac55-b61b44d3fbed</t>
+    <t>88afb470-6183-4018-a441-5281120ed329</t>
   </si>
   <si>
     <t>AGRICOLÂNDIA</t>

--- a/backend/storage/app/xlsx/seed_cidades_pi.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_pi.xlsx
@@ -23,7 +23,7 @@
     <t>ACAUÃNENSE</t>
   </si>
   <si>
-    <t>88afb470-6183-4018-a441-5281120ed329</t>
+    <t>7d7d36e1-764e-414f-9315-9381cb2342aa</t>
   </si>
   <si>
     <t>AGRICOLÂNDIA</t>

--- a/backend/storage/app/xlsx/seed_cidades_pi.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_pi.xlsx
@@ -23,7 +23,7 @@
     <t>ACAUÃNENSE</t>
   </si>
   <si>
-    <t>7d7d36e1-764e-414f-9315-9381cb2342aa</t>
+    <t>5e66cbaa-6fbd-4250-9771-5244e0d01555</t>
   </si>
   <si>
     <t>AGRICOLÂNDIA</t>

--- a/backend/storage/app/xlsx/seed_cidades_pi.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_pi.xlsx
@@ -23,7 +23,7 @@
     <t>ACAUÃNENSE</t>
   </si>
   <si>
-    <t>5e66cbaa-6fbd-4250-9771-5244e0d01555</t>
+    <t>cc0af09c-9f87-457e-95e5-41611ec34a5c</t>
   </si>
   <si>
     <t>AGRICOLÂNDIA</t>

--- a/backend/storage/app/xlsx/seed_cidades_pi.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_pi.xlsx
@@ -23,7 +23,7 @@
     <t>ACAUÃNENSE</t>
   </si>
   <si>
-    <t>cc0af09c-9f87-457e-95e5-41611ec34a5c</t>
+    <t>e0503c4c-9f65-4ee0-80d6-c2b5f4d304be</t>
   </si>
   <si>
     <t>AGRICOLÂNDIA</t>

--- a/backend/storage/app/xlsx/seed_cidades_pi.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_pi.xlsx
@@ -23,7 +23,7 @@
     <t>ACAUÃNENSE</t>
   </si>
   <si>
-    <t>e0503c4c-9f65-4ee0-80d6-c2b5f4d304be</t>
+    <t>8fccf29e-bdb9-4e81-8fad-239668253a41</t>
   </si>
   <si>
     <t>AGRICOLÂNDIA</t>
